--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88939316-F38E-46DF-9F7C-E2BD3D41DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1749B218-7204-4EAC-87B0-BDFD33F87545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{B010CAA6-FCDA-443F-925F-4AAC58CF3668}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{0EC10255-21D7-4DCA-9D8F-D8A494672938}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599513D0-5216-460C-8C6B-1342A979C89F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69992E21-1F74-4285-B552-CD5057752F05}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1749B218-7204-4EAC-87B0-BDFD33F87545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB4861-A36B-4138-AF93-ED0BC424F58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{0EC10255-21D7-4DCA-9D8F-D8A494672938}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{E08B47B7-73FF-4FC3-B38E-FF5BBC30A05D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69992E21-1F74-4285-B552-CD5057752F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72A7F5C-6BB0-4B7C-97A6-8CD1E80D7F23}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>20.777860341776503</v>
+        <v>3.0736140030496339</v>
       </c>
     </row>
   </sheetData>
